--- a/xlsx/nfeature: 1024, hamming_tolerance: 32, k_knn: 30.xlsx
+++ b/xlsx/nfeature: 1024, hamming_tolerance: 32, k_knn: 30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.668</v>
+        <v>0.394</v>
       </c>
       <c r="C1" t="n">
         <v>0.001</v>
       </c>
       <c r="D1" t="n">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="E1" t="n">
         <v>0.367</v>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.039</v>
+        <v>0.755</v>
       </c>
       <c r="C2" t="n">
         <v>0.002</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.028</v>
+        <v>0.663</v>
       </c>
       <c r="C3" t="n">
         <v>0.002</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.658</v>
+        <v>0.324</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0.339</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,25 +573,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.112</v>
+        <v>1.356</v>
       </c>
       <c r="C6" t="n">
         <v>0.004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.563</v>
+        <v>1.038</v>
       </c>
       <c r="C7" t="n">
         <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.633</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.137</v>
+        <v>1.56</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546</v>
+        <v>0.545</v>
       </c>
       <c r="E8" t="n">
         <v>0.9</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.592</v>
+        <v>0.983</v>
       </c>
       <c r="C9" t="n">
         <v>0.003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193</v>
+        <v>0.199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.733</v>
+        <v>0.7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.143</v>
+        <v>1.326</v>
       </c>
       <c r="C10" t="n">
         <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23</v>
+        <v>0.219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.946</v>
+        <v>0.737</v>
       </c>
       <c r="C11" t="n">
         <v>0.002</v>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.375</v>
+        <v>0.951</v>
       </c>
       <c r="C12" t="n">
         <v>0.003</v>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.984</v>
+        <v>0.715</v>
       </c>
       <c r="C13" t="n">
         <v>0.002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0.244</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.967</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.188</v>
+        <v>0.764</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
         <v>0.197</v>
@@ -834,25 +834,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.203</v>
+        <v>0.786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.36</v>
+        <v>0.327</v>
       </c>
       <c r="E15" t="n">
-        <v>0.433</v>
+        <v>0.533</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.946</v>
+        <v>0.554</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.555</v>
+        <v>0.554</v>
       </c>
       <c r="E16" t="n">
         <v>0.433</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="E17" t="n">
         <v>0.6</v>
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.362</v>
+        <v>0.913</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.38</v>
+        <v>0.356</v>
       </c>
       <c r="E18" t="n">
-        <v>0.467</v>
+        <v>0.533</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.477</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="E19" t="n">
         <v>0.333</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.728</v>
+        <v>0.855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.274</v>
+        <v>0.269</v>
       </c>
       <c r="E20" t="n">
         <v>0.5</v>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.887</v>
+        <v>0.358</v>
       </c>
       <c r="C21" t="n">
         <v>0.001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.095</v>
+        <v>0.343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.233</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.476</v>
+        <v>1.082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.113</v>
+        <v>0.097</v>
       </c>
       <c r="E22" t="n">
         <v>0.333</v>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.402</v>
+        <v>1.008</v>
       </c>
       <c r="C23" t="n">
         <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352</v>
+        <v>0.345</v>
       </c>
       <c r="E23" t="n">
         <v>0.533</v>
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.684</v>
+        <v>1.298</v>
       </c>
       <c r="C24" t="n">
         <v>0.004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444</v>
+        <v>0.415</v>
       </c>
       <c r="E24" t="n">
-        <v>0.633</v>
+        <v>0.667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.604</v>
+        <v>1.23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.492</v>
+        <v>0.468</v>
       </c>
       <c r="E25" t="n">
         <v>0.5669999999999999</v>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.387</v>
+        <v>0.928</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="E26" t="n">
-        <v>0.533</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.66</v>
+        <v>1.236</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.452</v>
+        <v>0.425</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6</v>
+        <v>0.633</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.8</v>
+        <v>1.321</v>
       </c>
       <c r="C28" t="n">
         <v>0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.49</v>
+        <v>0.448</v>
       </c>
       <c r="E28" t="n">
-        <v>0.667</v>
+        <v>0.733</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.971</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>0.002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.331</v>
+        <v>0.317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.633</v>
+        <v>0.667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.794</v>
+        <v>1.407</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.476</v>
+        <v>0.451</v>
       </c>
       <c r="E30" t="n">
-        <v>0.833</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.915</v>
+        <v>0.5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.137</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.176</v>
+        <v>0.169</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.152</v>
+        <v>0.91</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119</v>
+        <v>0.232</v>
       </c>
       <c r="E33" t="n">
-        <v>0.367</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1385,25 +1385,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.071</v>
+        <v>1.481</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168</v>
+        <v>0.481</v>
       </c>
       <c r="E34" t="n">
-        <v>0.667</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1414,71 +1414,71 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.776</v>
+        <v>1.376</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.475</v>
+        <v>0.297</v>
       </c>
       <c r="E35" t="n">
-        <v>0.733</v>
+        <v>0.467</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.305</v>
+        <v>1.126</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.397</v>
+        <v>0.227</v>
       </c>
       <c r="E36" t="n">
-        <v>0.533</v>
+        <v>0.367</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.366</v>
+        <v>0.633</v>
       </c>
       <c r="C37" t="n">
         <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.386</v>
+        <v>0.357</v>
       </c>
       <c r="E37" t="n">
         <v>0.533</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.249</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.393</v>
+        <v>0.368</v>
       </c>
       <c r="E38" t="n">
         <v>0.533</v>
@@ -1526,49 +1526,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.554</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.115</v>
+        <v>0.391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.341</v>
+        <v>3.025</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="n">
-        <v>0.361</v>
+        <v>0.093</v>
       </c>
       <c r="E40" t="n">
-        <v>0.533</v>
+        <v>0.6</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1584,24 +1584,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.444</v>
+        <v>2.877</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.023</v>
+        <v>0.075</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3</v>
+        <v>0.633</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,17 +1613,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.897</v>
+        <v>2.154</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D42" t="n">
-        <v>0.055</v>
+        <v>0.029</v>
       </c>
       <c r="E42" t="n">
         <v>0.267</v>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.5</v>
+        <v>2.291</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.186</v>
+        <v>0.052</v>
       </c>
       <c r="E43" t="n">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,29 +1671,58 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.191</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fanny Yusuf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Salah</t>
+      <c r="B45" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Benar</t>
         </is>
       </c>
     </row>
